--- a/db.xlsx
+++ b/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>表名</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>member</t>
+  </si>
+  <si>
+    <t>人员</t>
   </si>
   <si>
     <t>recharge</t>
@@ -131,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -146,6 +149,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -163,66 +258,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -251,38 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -311,55 +314,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,12 +452,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,42 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,21 +519,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,30 +548,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -594,6 +558,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +596,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,7 +1143,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
@@ -1543,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
@@ -1562,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1570,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1643,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>11</v>
@@ -1667,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>27</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -134,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -156,6 +156,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,14 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -181,7 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +218,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +255,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,72 +286,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -362,6 +362,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,18 +482,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,96 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,26 +538,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,11 +579,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,25 +596,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,130 +643,130 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,7 +1143,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4" t="b">
         <v>1</v>

--- a/db.xlsx
+++ b/db.xlsx
@@ -108,7 +108,7 @@
     <t>Recharge_and_cost</t>
   </si>
   <si>
-    <t>event，recharge</t>
+    <t xml:space="preserve">  -times</t>
   </si>
   <si>
     <t>event</t>
@@ -132,7 +132,7 @@
     <t>Recharge</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>times</t>
   </si>
   <si>
     <t>充值金额</t>
@@ -143,11 +143,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,12 +159,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,31 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -292,16 +271,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +322,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,25 +370,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,84 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,24 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,15 +549,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -565,16 +556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,16 +606,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,148 +633,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1125,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1524,22 +1524,20 @@
         <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1668,7 +1666,7 @@
       <c r="I34" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1685,7 +1683,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1702,7 +1700,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.749305555555556" bottom="0.749305555555556" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
